--- a/LatheControl.xlsx
+++ b/LatheControl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Users/Kevin/Documents/KiCad/LatheControl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAB996-F4DC-9248-AFBD-5B49CA40ACDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710CE96A-D62A-674D-B159-91DFC13FD96D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1476,8 +1476,8 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
